--- a/images/images_sizing.xlsx
+++ b/images/images_sizing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nitra/git/slovenskivedci/images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32B5796D-FCE1-C449-AF1B-C996AF5D4940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B455F384-6DA5-814C-BC0A-BE392BB430DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="500" windowWidth="26740" windowHeight="15500" xr2:uid="{FBABA11E-B330-2F49-B6C1-0584A0817DCB}"/>
   </bookViews>
@@ -31,6 +31,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>aspect ratio of photos</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -380,23 +388,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B0F30E-3D84-5F43-92C4-C4F68DFD6FED}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1280</v>
       </c>
       <c r="B1">
         <v>719</v>
       </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>400</v>
       </c>
